--- a/USHPRR/void_surface_matrix.xlsx
+++ b/USHPRR/void_surface_matrix.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1ABD88-382B-F645-97DB-494D560CE07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01992311-A2FD-6845-A8FD-996135F97578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{5FCE8159-DA7A-DB43-9415-C9D36BF75DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527EDAD7-4F1B-6B4D-AD42-DD67DA99EE68}">
-  <dimension ref="B3:P17"/>
+  <dimension ref="B3:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,6 +514,9 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="H12" t="s">
         <v>2</v>
       </c>
@@ -522,27 +525,34 @@
       </c>
       <c r="N12" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="H15" t="s">
         <v>5</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="K15" t="s">
         <v>5</v>
       </c>
@@ -552,17 +562,52 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="O18">
         <v>3</v>
       </c>
     </row>
